--- a/แผนการจัดการเรียนรู้/Course syllabus iot.xlsx
+++ b/แผนการจัดการเรียนรู้/Course syllabus iot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\embedded-system\แผนการจัดการเรียนรู้\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA51C296-98E1-44B7-9176-005786D12694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E42C1B-8451-4005-81DD-E3ABF80AFFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="420" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="102">
   <si>
     <t>ภาคเรียนที่</t>
   </si>
@@ -182,9 +182,6 @@
   </si>
   <si>
     <t>- การส่งงาน</t>
-  </si>
-  <si>
-    <t>2567</t>
   </si>
   <si>
     <t>ปฎิบัติ 1 ข้อ</t>
@@ -314,13 +311,22 @@
     <t>5 - 6</t>
   </si>
   <si>
-    <t>13 - 14</t>
-  </si>
-  <si>
     <t>15 - 6</t>
   </si>
   <si>
     <t>อาจารย์เอกรัตน์  อุไรโรจน์</t>
+  </si>
+  <si>
+    <t>2568</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">จริยธรรม AI </t>
   </si>
 </sst>
 </file>
@@ -359,7 +365,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -530,11 +536,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -687,6 +719,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -993,32 +1031,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T62"/>
+  <dimension ref="A1:T63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V56" sqref="V56"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X35" sqref="X35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="24.6" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="2" width="5.6640625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="5.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.88671875" style="1" customWidth="1"/>
-    <col min="7" max="10" width="5.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" style="1" customWidth="1"/>
+    <col min="7" max="10" width="5.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="6" style="1" customWidth="1"/>
-    <col min="12" max="12" width="5.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="5.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="4.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="6.88671875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="7.109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="5.6640625" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.109375" style="1"/>
+    <col min="12" max="12" width="5.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="5.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="6.85546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="7.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="5.7109375" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="26.4" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:18" ht="26.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="54" t="s">
         <v>39</v>
       </c>
@@ -1039,7 +1077,7 @@
       <c r="P1" s="54"/>
       <c r="Q1" s="54"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="E2" s="43" t="s">
         <v>0</v>
       </c>
@@ -1054,17 +1092,17 @@
       </c>
       <c r="K2" s="43"/>
       <c r="L2" s="52" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="M2" s="52"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="43" t="s">
         <v>45</v>
       </c>
       <c r="C3" s="43"/>
       <c r="D3" s="52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" s="52"/>
       <c r="F3" s="43" t="s">
@@ -1072,7 +1110,7 @@
       </c>
       <c r="G3" s="43"/>
       <c r="H3" s="52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I3" s="52"/>
       <c r="J3" s="52"/>
@@ -1084,11 +1122,11 @@
       </c>
       <c r="O3" s="43"/>
       <c r="P3" s="55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q3" s="55"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" s="34" t="s">
         <v>8</v>
       </c>
@@ -1115,7 +1153,7 @@
       </c>
       <c r="O4" s="43"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="34" t="s">
         <v>9</v>
       </c>
@@ -1135,14 +1173,14 @@
         <v>7</v>
       </c>
       <c r="K5" s="52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L5" s="52"/>
       <c r="M5" s="52"/>
       <c r="N5" s="52"/>
       <c r="O5" s="52"/>
     </row>
-    <row r="6" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="43" t="s">
         <v>34</v>
       </c>
@@ -1163,7 +1201,7 @@
       <c r="P6" s="43"/>
       <c r="Q6" s="43"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="34" t="s">
         <v>1</v>
       </c>
@@ -1184,9 +1222,9 @@
       <c r="P7" s="34"/>
       <c r="Q7" s="34"/>
     </row>
-    <row r="8" spans="1:18" ht="21.9" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="37"/>
       <c r="C8" s="37"/>
@@ -1205,9 +1243,9 @@
       <c r="P8" s="37"/>
       <c r="Q8" s="37"/>
     </row>
-    <row r="9" spans="1:18" ht="21.9" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
@@ -1226,9 +1264,9 @@
       <c r="P9" s="37"/>
       <c r="Q9" s="37"/>
     </row>
-    <row r="10" spans="1:18" ht="21.9" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
@@ -1248,9 +1286,9 @@
       <c r="Q10" s="36"/>
       <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="1:18" ht="21.9" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" s="36"/>
       <c r="C11" s="36"/>
@@ -1270,9 +1308,9 @@
       <c r="Q11" s="36"/>
       <c r="R11" s="3"/>
     </row>
-    <row r="12" spans="1:18" ht="21.9" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -1292,7 +1330,7 @@
       <c r="Q12" s="36"/>
       <c r="R12" s="3"/>
     </row>
-    <row r="13" spans="1:18" ht="21.9" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -1312,7 +1350,7 @@
       <c r="Q13" s="16"/>
       <c r="R13" s="3"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="35" t="s">
         <v>47</v>
       </c>
@@ -1333,9 +1371,9 @@
       <c r="P14" s="35"/>
       <c r="Q14" s="35"/>
     </row>
-    <row r="15" spans="1:18" ht="21.9" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
@@ -1354,9 +1392,9 @@
       <c r="P15" s="37"/>
       <c r="Q15" s="37"/>
     </row>
-    <row r="16" spans="1:18" ht="21.9" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" s="37"/>
       <c r="C16" s="37"/>
@@ -1375,9 +1413,9 @@
       <c r="P16" s="37"/>
       <c r="Q16" s="37"/>
     </row>
-    <row r="17" spans="1:17" ht="21.9" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -1396,9 +1434,9 @@
       <c r="P17" s="15"/>
       <c r="Q17" s="15"/>
     </row>
-    <row r="18" spans="1:17" ht="21.9" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -1417,7 +1455,7 @@
       <c r="P18" s="15"/>
       <c r="Q18" s="15"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="16"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -1436,7 +1474,7 @@
       <c r="P19" s="16"/>
       <c r="Q19" s="16"/>
     </row>
-    <row r="20" spans="1:17" ht="21.9" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="35" t="s">
         <v>11</v>
       </c>
@@ -1457,9 +1495,9 @@
       <c r="P20" s="35"/>
       <c r="Q20" s="35"/>
     </row>
-    <row r="21" spans="1:17" ht="21.9" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
@@ -1478,9 +1516,9 @@
       <c r="P21" s="37"/>
       <c r="Q21" s="37"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B22" s="42"/>
       <c r="C22" s="42"/>
@@ -1499,9 +1537,9 @@
       <c r="P22" s="42"/>
       <c r="Q22" s="42"/>
     </row>
-    <row r="23" spans="1:17" ht="21.9" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
@@ -1520,7 +1558,7 @@
       <c r="P23" s="37"/>
       <c r="Q23" s="37"/>
     </row>
-    <row r="24" spans="1:17" ht="21.9" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -1539,7 +1577,7 @@
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
     </row>
-    <row r="25" spans="1:17" ht="21.9" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="39" t="s">
         <v>12</v>
       </c>
@@ -1562,13 +1600,13 @@
       <c r="P25" s="39"/>
       <c r="Q25" s="39"/>
     </row>
-    <row r="26" spans="1:17" ht="21.9" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="28" t="s">
         <v>2</v>
       </c>
       <c r="B26" s="28"/>
       <c r="C26" s="44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="44"/>
       <c r="E26" s="44"/>
@@ -1585,13 +1623,13 @@
       <c r="P26" s="44"/>
       <c r="Q26" s="44"/>
     </row>
-    <row r="27" spans="1:17" ht="21.9" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="30" t="s">
         <v>14</v>
       </c>
       <c r="B27" s="30"/>
       <c r="C27" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
@@ -1608,13 +1646,13 @@
       <c r="P27" s="24"/>
       <c r="Q27" s="24"/>
     </row>
-    <row r="28" spans="1:17" ht="21.9" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B28" s="29"/>
       <c r="C28" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
@@ -1631,13 +1669,13 @@
       <c r="P28" s="24"/>
       <c r="Q28" s="24"/>
     </row>
-    <row r="29" spans="1:17" ht="21.9" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D29" s="24"/>
       <c r="E29" s="24"/>
@@ -1654,13 +1692,13 @@
       <c r="P29" s="24"/>
       <c r="Q29" s="24"/>
     </row>
-    <row r="30" spans="1:17" ht="21.9" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="29" t="s">
         <v>40</v>
       </c>
       <c r="B30" s="29"/>
       <c r="C30" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
@@ -1677,13 +1715,13 @@
       <c r="P30" s="24"/>
       <c r="Q30" s="24"/>
     </row>
-    <row r="31" spans="1:17" ht="21.9" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:17" ht="21.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="29"/>
       <c r="C31" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
@@ -1700,7 +1738,7 @@
       <c r="P31" s="24"/>
       <c r="Q31" s="24"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="33" t="s">
         <v>17</v>
       </c>
@@ -1723,13 +1761,13 @@
       <c r="P32" s="45"/>
       <c r="Q32" s="45"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="40" t="s">
         <v>18</v>
       </c>
       <c r="B33" s="41"/>
       <c r="C33" s="46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D33" s="47"/>
       <c r="E33" s="47"/>
@@ -1746,13 +1784,13 @@
       <c r="P33" s="47"/>
       <c r="Q33" s="48"/>
     </row>
-    <row r="34" spans="1:20" ht="21.9" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:20" ht="21.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="29" t="s">
         <v>41</v>
       </c>
       <c r="B34" s="29"/>
       <c r="C34" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D34" s="24"/>
       <c r="E34" s="24"/>
@@ -1769,13 +1807,13 @@
       <c r="P34" s="24"/>
       <c r="Q34" s="24"/>
     </row>
-    <row r="35" spans="1:20" ht="21.9" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:20" ht="21.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="29" t="s">
         <v>42</v>
       </c>
       <c r="B35" s="29"/>
       <c r="C35" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D35" s="24"/>
       <c r="E35" s="24"/>
@@ -1792,13 +1830,13 @@
       <c r="P35" s="24"/>
       <c r="Q35" s="24"/>
     </row>
-    <row r="36" spans="1:20" ht="21.9" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A36" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="B36" s="29"/>
+    <row r="36" spans="1:20" ht="21.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" s="57"/>
       <c r="C36" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D36" s="24"/>
       <c r="E36" s="24"/>
@@ -1815,56 +1853,56 @@
       <c r="P36" s="24"/>
       <c r="Q36" s="24"/>
     </row>
-    <row r="37" spans="1:20" ht="21.9" customHeight="1" x14ac:dyDescent="0.7"/>
-    <row r="38" spans="1:20" ht="21.9" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A38" s="49" t="s">
+    <row r="37" spans="1:20" ht="21.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" s="29"/>
+      <c r="C37" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="24"/>
+    </row>
+    <row r="38" spans="1:20" ht="21.95" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="39" spans="1:20" ht="21.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="50"/>
-      <c r="C38" s="49" t="s">
+      <c r="B39" s="50"/>
+      <c r="C39" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="51"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="51"/>
-      <c r="N38" s="51"/>
-      <c r="O38" s="51"/>
-      <c r="P38" s="51"/>
-      <c r="Q38" s="50"/>
-    </row>
-    <row r="39" spans="1:20" ht="21.9" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A39" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="B39" s="29"/>
-      <c r="C39" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="24"/>
-      <c r="O39" s="24"/>
-      <c r="P39" s="24"/>
-      <c r="Q39" s="24"/>
-    </row>
-    <row r="40" spans="1:20" ht="21.9" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="51"/>
+      <c r="N39" s="51"/>
+      <c r="O39" s="51"/>
+      <c r="P39" s="51"/>
+      <c r="Q39" s="50"/>
+    </row>
+    <row r="40" spans="1:20" ht="21.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="29" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="B40" s="29"/>
       <c r="C40" s="24" t="s">
@@ -1885,109 +1923,105 @@
       <c r="P40" s="24"/>
       <c r="Q40" s="24"/>
     </row>
-    <row r="41" spans="1:20" ht="21.9" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A41" s="33" t="s">
+    <row r="41" spans="1:20" ht="21.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="29"/>
+      <c r="C41" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="24"/>
+      <c r="P41" s="24"/>
+      <c r="Q41" s="24"/>
+    </row>
+    <row r="42" spans="1:20" ht="21.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="33"/>
-      <c r="C41" s="45" t="s">
+      <c r="B42" s="33"/>
+      <c r="C42" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
-      <c r="L41" s="45"/>
-      <c r="M41" s="45"/>
-      <c r="N41" s="45"/>
-      <c r="O41" s="45"/>
-      <c r="P41" s="45"/>
-      <c r="Q41" s="45"/>
-    </row>
-    <row r="42" spans="1:20" ht="21.9" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="21"/>
-      <c r="N42" s="21"/>
-      <c r="O42" s="21"/>
-      <c r="P42" s="21"/>
-      <c r="Q42" s="21"/>
-    </row>
-    <row r="43" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A43" s="2" t="s">
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="45"/>
+      <c r="K42" s="45"/>
+      <c r="L42" s="45"/>
+      <c r="M42" s="45"/>
+      <c r="N42" s="45"/>
+      <c r="O42" s="45"/>
+      <c r="P42" s="45"/>
+      <c r="Q42" s="45"/>
+    </row>
+    <row r="43" spans="1:20" ht="21.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="21"/>
+    </row>
+    <row r="44" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A44" s="31" t="s">
+    <row r="45" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="12"/>
-      <c r="O44" s="12"/>
-      <c r="P44" s="12"/>
-      <c r="Q44" s="12"/>
-    </row>
-    <row r="45" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A45" s="14"/>
-      <c r="B45" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="23"/>
-      <c r="M45" s="23"/>
-      <c r="N45" s="23"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q45" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" s="5" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+    </row>
+    <row r="46" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="14"/>
       <c r="B46" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C46" s="4"/>
-      <c r="D46" s="23" t="s">
-        <v>85</v>
+      <c r="D46" s="22" t="s">
+        <v>83</v>
       </c>
       <c r="E46" s="23"/>
       <c r="F46" s="23"/>
@@ -1999,6 +2033,7 @@
       <c r="L46" s="23"/>
       <c r="M46" s="23"/>
       <c r="N46" s="23"/>
+      <c r="O46" s="5"/>
       <c r="P46" s="5" t="s">
         <v>26</v>
       </c>
@@ -2006,14 +2041,14 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:20" s="5" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:20" s="5" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A47" s="14"/>
       <c r="B47" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E47" s="23"/>
       <c r="F47" s="23"/>
@@ -2031,15 +2066,14 @@
       <c r="Q47" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="R47" s="4"/>
-      <c r="T47" s="7"/>
-    </row>
-    <row r="48" spans="1:20" s="5" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.6">
+    </row>
+    <row r="48" spans="1:20" s="5" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="14"/>
       <c r="B48" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C48" s="4"/>
-      <c r="D48" s="22" t="s">
+      <c r="D48" s="23" t="s">
         <v>86</v>
       </c>
       <c r="E48" s="23"/>
@@ -2061,13 +2095,13 @@
       <c r="R48" s="4"/>
       <c r="T48" s="7"/>
     </row>
-    <row r="49" spans="1:20" s="5" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:20" s="5" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B49" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="22" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E49" s="23"/>
       <c r="F49" s="23"/>
@@ -2088,13 +2122,13 @@
       <c r="R49" s="4"/>
       <c r="T49" s="7"/>
     </row>
-    <row r="50" spans="1:20" s="5" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B50" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C50" s="17"/>
+    <row r="50" spans="1:20" s="5" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B50" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="4"/>
       <c r="D50" s="22" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E50" s="23"/>
       <c r="F50" s="23"/>
@@ -2110,18 +2144,18 @@
         <v>26</v>
       </c>
       <c r="Q50" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="R50" s="17"/>
+        <v>36</v>
+      </c>
+      <c r="R50" s="4"/>
       <c r="T50" s="7"/>
     </row>
-    <row r="51" spans="1:20" s="5" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:20" s="5" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B51" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E51" s="23"/>
       <c r="F51" s="23"/>
@@ -2137,73 +2171,73 @@
         <v>26</v>
       </c>
       <c r="Q51" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R51" s="17"/>
       <c r="T51" s="7"/>
     </row>
-    <row r="52" spans="1:20" s="5" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A52" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="B52" s="32"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="27"/>
-      <c r="L52" s="27"/>
-      <c r="M52" s="27"/>
-      <c r="N52" s="27"/>
+    <row r="52" spans="1:20" s="5" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B52" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="17"/>
+      <c r="D52" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="23"/>
+      <c r="K52" s="23"/>
+      <c r="L52" s="23"/>
+      <c r="M52" s="23"/>
+      <c r="N52" s="23"/>
       <c r="P52" s="5" t="s">
         <v>26</v>
       </c>
       <c r="Q52" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="R52" s="4"/>
+        <v>93</v>
+      </c>
+      <c r="R52" s="17"/>
       <c r="T52" s="7"/>
     </row>
-    <row r="53" spans="1:20" s="5" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A53" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="25"/>
-      <c r="I53" s="25"/>
-      <c r="J53" s="25"/>
-      <c r="K53" s="25"/>
-      <c r="L53" s="25"/>
-      <c r="M53" s="25"/>
-      <c r="N53" s="25"/>
-      <c r="O53" s="1"/>
+    <row r="53" spans="1:20" s="5" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A53" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="27"/>
+      <c r="L53" s="27"/>
+      <c r="M53" s="27"/>
+      <c r="N53" s="27"/>
       <c r="P53" s="5" t="s">
         <v>26</v>
       </c>
       <c r="Q53" s="6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="R53" s="4"/>
       <c r="T53" s="7"/>
     </row>
-    <row r="54" spans="1:20" s="5" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A54" s="1"/>
+    <row r="54" spans="1:20" s="5" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B54" s="1"/>
       <c r="C54" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D54" s="25"/>
       <c r="E54" s="25"/>
@@ -2221,16 +2255,16 @@
         <v>26</v>
       </c>
       <c r="Q54" s="6" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="R54" s="4"/>
       <c r="T54" s="7"/>
     </row>
-    <row r="55" spans="1:20" s="5" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="55" spans="1:20" s="5" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D55" s="25"/>
       <c r="E55" s="25"/>
@@ -2247,89 +2281,101 @@
       <c r="P55" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="Q55" s="4" t="s">
+      <c r="Q55" s="6" t="s">
         <v>36</v>
       </c>
       <c r="R55" s="4"/>
       <c r="T55" s="7"/>
     </row>
-    <row r="56" spans="1:20" s="5" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="56" spans="1:20" s="5" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1"/>
-      <c r="B56" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I56" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J56" s="25" t="s">
-        <v>33</v>
-      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="25"/>
       <c r="K56" s="25"/>
       <c r="L56" s="25"/>
       <c r="M56" s="25"/>
       <c r="N56" s="25"/>
-      <c r="O56" s="25"/>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q56" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="R56" s="4"/>
       <c r="T56" s="7"/>
     </row>
-    <row r="57" spans="1:20" ht="23.1" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:20" s="5" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J57" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="K57" s="25"/>
+      <c r="L57" s="25"/>
+      <c r="M57" s="25"/>
+      <c r="N57" s="25"/>
+      <c r="O57" s="25"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="4"/>
+      <c r="T57" s="7"/>
+    </row>
+    <row r="58" spans="1:20" ht="23.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E57" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="12"/>
-      <c r="L57" s="18"/>
-      <c r="M57" s="18"/>
-      <c r="N57" s="18"/>
-      <c r="O57" s="18"/>
-      <c r="P57" s="18"/>
-      <c r="Q57" s="18"/>
-      <c r="R57" s="4"/>
-    </row>
-    <row r="58" spans="1:20" ht="23.1" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E58" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
+      <c r="E58" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
       <c r="K58" s="12"/>
-      <c r="L58" s="19"/>
-      <c r="M58" s="19"/>
-      <c r="N58" s="19"/>
-      <c r="O58" s="19"/>
-      <c r="P58" s="19"/>
-      <c r="Q58" s="19"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="18"/>
+      <c r="N58" s="18"/>
+      <c r="O58" s="18"/>
+      <c r="P58" s="18"/>
+      <c r="Q58" s="18"/>
       <c r="R58" s="4"/>
     </row>
-    <row r="59" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="18"/>
+    <row r="59" spans="1:20" ht="23.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E59" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="12"/>
       <c r="L59" s="19"/>
       <c r="M59" s="19"/>
       <c r="N59" s="19"/>
@@ -2338,7 +2384,7 @@
       <c r="Q59" s="19"/>
       <c r="R59" s="4"/>
     </row>
-    <row r="60" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="60" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E60" s="18"/>
       <c r="F60" s="18"/>
       <c r="G60" s="18"/>
@@ -2353,12 +2399,29 @@
       <c r="Q60" s="19"/>
       <c r="R60" s="4"/>
     </row>
-    <row r="61" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="61" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="18"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="19"/>
+      <c r="O61" s="19"/>
+      <c r="P61" s="19"/>
+      <c r="Q61" s="19"/>
       <c r="R61" s="4"/>
     </row>
-    <row r="62" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="62" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="R62" s="4"/>
+    </row>
+    <row r="63" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
-  <mergeCells count="81">
+  <mergeCells count="83">
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:Q36"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="J2:K2"/>
@@ -2380,21 +2443,21 @@
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="K5:O5"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
     <mergeCell ref="A6:Q6"/>
     <mergeCell ref="A8:Q8"/>
-    <mergeCell ref="J56:O56"/>
+    <mergeCell ref="J57:O57"/>
     <mergeCell ref="C25:Q25"/>
     <mergeCell ref="C26:Q26"/>
-    <mergeCell ref="C41:Q41"/>
+    <mergeCell ref="C42:Q42"/>
     <mergeCell ref="C30:Q30"/>
     <mergeCell ref="C32:Q32"/>
     <mergeCell ref="C33:Q33"/>
     <mergeCell ref="C34:Q34"/>
     <mergeCell ref="C35:Q35"/>
-    <mergeCell ref="C36:Q36"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:Q38"/>
+    <mergeCell ref="C37:Q37"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:Q39"/>
     <mergeCell ref="A23:Q23"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="C27:Q27"/>
@@ -2415,31 +2478,31 @@
     <mergeCell ref="A11:Q11"/>
     <mergeCell ref="A15:Q15"/>
     <mergeCell ref="A16:Q16"/>
+    <mergeCell ref="C56:N56"/>
+    <mergeCell ref="D53:N53"/>
+    <mergeCell ref="C54:N54"/>
     <mergeCell ref="C55:N55"/>
-    <mergeCell ref="D52:N52"/>
-    <mergeCell ref="C53:N53"/>
-    <mergeCell ref="C54:N54"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="C28:Q28"/>
     <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A42:B42"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="D51:N51"/>
+    <mergeCell ref="D52:N52"/>
+    <mergeCell ref="C40:Q40"/>
     <mergeCell ref="D50:N50"/>
-    <mergeCell ref="D51:N51"/>
-    <mergeCell ref="C39:Q39"/>
+    <mergeCell ref="D47:N47"/>
     <mergeCell ref="D49:N49"/>
     <mergeCell ref="D46:N46"/>
+    <mergeCell ref="C41:Q41"/>
     <mergeCell ref="D48:N48"/>
-    <mergeCell ref="D45:N45"/>
-    <mergeCell ref="C40:Q40"/>
-    <mergeCell ref="D47:N47"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
